--- a/заказы/статистика филиалы/2023/11,23/09,11,23 ЗПФ/дв 09,11,23 днрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/09,11,23 ЗПФ/дв 09,11,23 днрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\09,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\09,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21947A9B-346D-497F-9CF4-CBC08B2E4010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2755DC1-2A87-402F-87EA-248E443FF09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="246" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AC$58</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3839,8 +3839,8 @@
   <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE27" sqref="AE27"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -4051,9 +4051,12 @@
         <f t="shared" si="1"/>
         <v>3071.7</v>
       </c>
-      <c r="Q5" s="15"/>
+      <c r="Q5" s="15">
+        <f t="shared" ref="Q5:R5" si="2">SUM(Q6:Q66)</f>
+        <v>3102</v>
+      </c>
       <c r="R5" s="15">
-        <f t="shared" ref="R5" si="2">SUM(R6:R66)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S5" s="16"/>
@@ -4223,11 +4226,11 @@
         <v>12</v>
       </c>
       <c r="AB7" s="18">
-        <f t="shared" ref="AB7:AB58" si="7">P7/AA7</f>
+        <f t="shared" ref="AB7:AB49" si="7">P7/AA7</f>
         <v>0</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" ref="AC7:AC58" si="8">AB7*AA7*H7</f>
+        <f t="shared" ref="AC7:AC53" si="8">AB7*AA7*H7</f>
         <v>0</v>
       </c>
     </row>
@@ -7399,53 +7402,18 @@
       <c r="Q54" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="AB54" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="55" spans="1:29" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q55" s="31"/>
-      <c r="AB55" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="56" spans="1:29" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q56" s="31"/>
-      <c r="AB56" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="57" spans="1:29" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q57" s="31"/>
-      <c r="AB57" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="1:29" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q58" s="31"/>
-      <c r="AB58" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:AC58" xr:uid="{238503F8-47BB-45E2-8690-E95C828ABE7A}"/>
